--- a/data/2020 IP MASTERLIST.xlsx
+++ b/data/2020 IP MASTERLIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ip_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4EC404-B4F5-48CA-8812-4B77DAFF3297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22713384-9D18-4A40-AD19-A1401DE2423A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="541">
   <si>
     <t>IPRO file number</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Acclimatization of Two Varieties of In Vitro Cultured Lisianthus (Eustoma Grandiflorum)</t>
   </si>
   <si>
-    <t>Leila Mary A. Ayban, Araceli G. Ladiald, Jemma Rose M. Kilakil, Nemie A. Chamollog and Phillip Tom B. Asi-as</t>
-  </si>
-  <si>
     <t>O2020-191</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Educari Journal (Volume 8 Number 1)</t>
   </si>
   <si>
-    <t>Dolores E. Alawas, Divinia M. Yango, Elizabeth A. Lascano, Janet Lynn S. Montemayor, Imelda G. Parcasio, Apler J. Bansiong, Esper L. Feliciano, Jingle P. Cuevas, Agustin R.Nang-is, Brenda B. Allay and Evelyn S. Angiwan</t>
-  </si>
-  <si>
     <t>cB2020-32</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Ex-vitro Acclimatization of Micropropagated Lilium Orientalis (Cultivar Stargazer)</t>
   </si>
   <si>
-    <t>Leila Mary A. Ayban, Araceli G. Ladilad, Jemma Rose M. Kilakil, Nemie A. Chamollog and Phillip Tom B. Asi-as</t>
-  </si>
-  <si>
     <t>O2020-195</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
     <t>Varietal Evaluation and Selection of Salad Type Tomato Under Conventional Production in the Highlands</t>
   </si>
   <si>
-    <t>Amelia M. Kimeu and Remegio T. Calayan</t>
-  </si>
-  <si>
     <t>O2020-197</t>
   </si>
   <si>
@@ -231,9 +219,6 @@
     <t>Varietal Evaluation and Selection of Tomato Under Organic Production Systems</t>
   </si>
   <si>
-    <t>Amelia M. Kimeu, Remegio T. Calayan, Kirby D. Gasigas and Jacob B. Atas</t>
-  </si>
-  <si>
     <t>O2020-198</t>
   </si>
   <si>
@@ -252,9 +237,6 @@
     <t>FSRIC Brochure</t>
   </si>
   <si>
-    <t>Violeta B. Salda and Manuel M. Dorado Jr.</t>
-  </si>
-  <si>
     <t>O2020-199</t>
   </si>
   <si>
@@ -276,9 +258,6 @@
     <t>How to Process Amaranth Dried Miki</t>
   </si>
   <si>
-    <t>Violeta B. Salda and Jofrey J. Bayating</t>
-  </si>
-  <si>
     <t>O2020-200</t>
   </si>
   <si>
@@ -315,9 +294,6 @@
     <t>Climate Resilient Production</t>
   </si>
   <si>
-    <t>Carlito P. Laurean, Ruth S. Batani, Alexander W. Fagyan, Teresita K. Mangili, Jocelyn C. Perez, Laudemar L. Luis, Craig P. Lucas, Sheler D. Ramos and Cus M. Kilakil</t>
-  </si>
-  <si>
     <t>cA2020-754</t>
   </si>
   <si>
@@ -339,9 +315,6 @@
     <t>Effect of Sweetpotato, Taro and Yam Insect Pests and Diseases on Livelihood and Food Security of Indigenous Farmers in Benguet and Nueva Vizcaya Philippines Volume 1</t>
   </si>
   <si>
-    <t>Grace S. Backian, Ammie D. Ngaotoy, Jophr L. Galian, Betty T. Gayao and Dalen T. Meldoz</t>
-  </si>
-  <si>
     <t>cA2020-755</t>
   </si>
   <si>
@@ -363,9 +336,6 @@
     <t>Farming Practices and Farm Environment Affecting Incidence of Insect Pests and Diseases in Sweetpotato, Taro and Yam Grown By Indigenous Farmers in Benguet and Nueva Vizcaya, Philippines Volume 2</t>
   </si>
   <si>
-    <t>Grace S. Backian, Ammie D. Ngaotoy, Jophr L. Galian and Betty T. Gayao</t>
-  </si>
-  <si>
     <t>cA2020-756</t>
   </si>
   <si>
@@ -411,9 +381,6 @@
     <t>Incomplete Paradise</t>
   </si>
   <si>
-    <t>Julius B. Dominguez and Felix D. Sab-it</t>
-  </si>
-  <si>
     <t>cG2020-67</t>
   </si>
   <si>
@@ -510,9 +477,6 @@
     <t>BSU Grower’s Compost: CSAC’S Good Practices in Producing and Using a Bio Fertilizer</t>
   </si>
   <si>
-    <t>Jamar G. Garcia and Alexander T. Fagyan</t>
-  </si>
-  <si>
     <t>cL2020-104</t>
   </si>
   <si>
@@ -534,9 +498,6 @@
     <t>The Honey Flow Season: Harvesting the Fruit of Labor Maximising Honey’s By Product</t>
   </si>
   <si>
-    <t>Jamar G. Garcia, Leo E. Kimbungan, Francois A. Bayas, Rose D. Dagupen, Joseph C. Anas and Gerry M. Alfonso</t>
-  </si>
-  <si>
     <t>cL2020-105</t>
   </si>
   <si>
@@ -567,9 +528,6 @@
     <t>Dagem (Strong Winds)</t>
   </si>
   <si>
-    <t>Carlito P.Laurean, Ruth S. Batani, Flordeliza O. Naje, Laudemar L. Luis, Hector A. Badis, Sheler D. Ramos and Graig D. Lucas</t>
-  </si>
-  <si>
     <t>cL2020-100</t>
   </si>
   <si>
@@ -579,9 +537,6 @@
     <t>Carrot Organic Production Guide</t>
   </si>
   <si>
-    <t>Belinda A. Tad-awan, Darwin A. Basquial and Josie Orlang</t>
-  </si>
-  <si>
     <t>cO2020-1145</t>
   </si>
   <si>
@@ -648,9 +603,6 @@
     <t>Benguet State University – Intellectual Property Rights Office</t>
   </si>
   <si>
-    <t>Ana N. Pecsoy, April P. Estrada and Jake L. Galian</t>
-  </si>
-  <si>
     <t>cL2020-1153</t>
   </si>
   <si>
@@ -690,9 +642,6 @@
     <t>Policy Brief</t>
   </si>
   <si>
-    <t>Craig P. Lucas, Sheler P. Ramos, Laudemar L. Luis, Alexander W. Fagyan, Ruth S. Batani and Betty C. Listino</t>
-  </si>
-  <si>
     <t>cO2020-1164</t>
   </si>
   <si>
@@ -720,9 +669,6 @@
     <t>Concern for Community; Exploratory Case of Cooperatives in the Cordillera Region Philippines</t>
   </si>
   <si>
-    <t>Cheryll C. Launio and Mary Cris B. Sotelo</t>
-  </si>
-  <si>
     <t>cO2020-1152</t>
   </si>
   <si>
@@ -744,9 +690,6 @@
     <t>Production of Arabica Coffee Planting Materials Through in Vitro Culture</t>
   </si>
   <si>
-    <t>Milagros R. Dumaslan and Belinda A. Tad-awan</t>
-  </si>
-  <si>
     <t>cO2020-1155</t>
   </si>
   <si>
@@ -765,9 +708,6 @@
     <t>Structural Windbreak Technology</t>
   </si>
   <si>
-    <t>Alexander T. Fagyan and Jamar G. Garcia</t>
-  </si>
-  <si>
     <t>cO2020-1156</t>
   </si>
   <si>
@@ -786,9 +726,6 @@
     <t>Cascara Wine Techno Guide</t>
   </si>
   <si>
-    <t>Valentino L. Macanes, Lesley Dale G. Umayat and Mirafy G. Balang</t>
-  </si>
-  <si>
     <t>cO2020-1157</t>
   </si>
   <si>
@@ -810,9 +747,6 @@
     <t>Entomopathogenic Fungi: A Biological Control Strategy for Insect Pest Management</t>
   </si>
   <si>
-    <t>Jocelyn C. Perez, Teresita K. Mangili and Roger L. Pescasio</t>
-  </si>
-  <si>
     <t>cO2020-1158</t>
   </si>
   <si>
@@ -831,9 +765,6 @@
     <t>Database on Organic Agriculture in Apayao</t>
   </si>
   <si>
-    <t>Jovita M. Sim and Teresa B. Bocales</t>
-  </si>
-  <si>
     <t>cO2020-1159</t>
   </si>
   <si>
@@ -870,9 +801,6 @@
     <t>Technoguide on Pancit Canton Making</t>
   </si>
   <si>
-    <t>Violeta B. Salda, Jofrey J. Bayating and Lesley Dale G. Umayat</t>
-  </si>
-  <si>
     <t>cO2020-1163</t>
   </si>
   <si>
@@ -891,9 +819,6 @@
     <t>Mass Rearing of Two Spotted Spider Mites (Tetranychus Urtichae Koch) and Predatory Mites (Amblyseius Longispinosus Evans)</t>
   </si>
   <si>
-    <t>Jocelyn C. Perez, Teresita K. Mangili and Adelma M. Reparejo</t>
-  </si>
-  <si>
     <t>cO2020-1161</t>
   </si>
   <si>
@@ -912,9 +837,6 @@
     <t>Nutritious and Healthy Veggie/Root Crops Enriched Loaf Bread</t>
   </si>
   <si>
-    <t>Violeta B. Salda, Jofrey J. Bayating and Manuel M. Dorado Jr.</t>
-  </si>
-  <si>
     <t>cO2020-1162</t>
   </si>
   <si>
@@ -1044,9 +966,6 @@
     <t>Minimizing Pathogenic Microbial Contamination in Organically Farmed Crops</t>
   </si>
   <si>
-    <t>Sherlyn C. Tipayno, Criselda S. Battad, Amelia M. Kimeu and Jayson D. Komicho</t>
-  </si>
-  <si>
     <t>cO2020-1173</t>
   </si>
   <si>
@@ -1056,9 +975,6 @@
     <t>Compendium of Heirloom Rice Landraces and their Variants in Benguet</t>
   </si>
   <si>
-    <t>Belinda A. Tad-awan, Carlito P. Laurean, Hector C. Gayomba, Esther Josephine D. Sagalla, Teresita D. Masangcay, Mannylen P. Odias and Jasmin Chomawat</t>
-  </si>
-  <si>
     <t>cO2020-1193</t>
   </si>
   <si>
@@ -1068,9 +984,6 @@
     <t>Impact of Rootcrop-Based Processing Technology Dissemination on Women’s Livelihood and Household Food Consumption</t>
   </si>
   <si>
-    <t>Dalen T. Meldoz, Esther T. Botangen, Joyce K. Mama-o, Betty T. Gayao and Sherily B. Balauro</t>
-  </si>
-  <si>
     <t>cO2020-1194</t>
   </si>
   <si>
@@ -1095,9 +1008,6 @@
     <t>Setting-up a Climate Resilient Farm</t>
   </si>
   <si>
-    <t>Laudemar L. Luis and Alexander W. Fagyan</t>
-  </si>
-  <si>
     <t>cO2020-1196</t>
   </si>
   <si>
@@ -1116,14 +1026,6 @@
     <t>Impact of Rootcrop-based processing Technology Dissemination on Women’s Livelihood and Household Food for Consumption</t>
   </si>
   <si>
-    <t xml:space="preserve">Dalen T. Meldoz
-Esther T. Botangen
-Joyce K. Mama-o
-Betty T. Gayao
-Sherilyn B. Balauro
-</t>
-  </si>
-  <si>
     <t>Registered</t>
   </si>
   <si>
@@ -1134,11 +1036,6 @@
   </si>
   <si>
     <t>2020-Br-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jovita M. Sim
-Teresa B. Bocales
-</t>
   </si>
   <si>
     <t>978-971-006-344-4 (ISBN)</t>
@@ -1329,382 +1226,496 @@
     <t>A Composition of Freeze-Dried Red-Fleshed Dragon Fruit</t>
   </si>
   <si>
-    <t xml:space="preserve">Jao-Jao A. Somyden
-Rhea S. Contada
-Pelin B. Belino
-Johnabel T. Basatan
+    <t>2020-D-08</t>
+  </si>
+  <si>
+    <t>A Process for Making Turmeric (Curcuma Longa) Powder for Tea and Spice</t>
+  </si>
+  <si>
+    <t>With certificate (until December 07, 2027)</t>
+  </si>
+  <si>
+    <t>2020-D-09</t>
+  </si>
+  <si>
+    <t>A Process of Baking Cake Enriched with Zucchini (Cucurbita Pepo)</t>
+  </si>
+  <si>
+    <t>2020-D-10</t>
+  </si>
+  <si>
+    <t>A Process of Freeze-Dried Red-Fleshed Dragon Fruit</t>
+  </si>
+  <si>
+    <t>A Process for producing freeze-dried red-fleshed dragon fruit</t>
+  </si>
+  <si>
+    <t>2020-D-11</t>
+  </si>
+  <si>
+    <t>A Composition of Baking Cake Enriched with Zucchini (Cucurbita Pepo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melchor S. Lumiked
+</t>
+  </si>
+  <si>
+    <t>2020-D-12</t>
+  </si>
+  <si>
+    <t>A Composition of Baking Cake Enriched with Sugar Beet (Beta Vulgaris)</t>
+  </si>
+  <si>
+    <t>2020-D-13</t>
+  </si>
+  <si>
+    <t>A Process for Making Purple Yam Polvoron</t>
+  </si>
+  <si>
+    <t>2020-D-14</t>
+  </si>
+  <si>
+    <t>A Process for Making Sun-Dried Pork</t>
+  </si>
+  <si>
+    <t>Cynthia D. Garambas</t>
+  </si>
+  <si>
+    <t>2020-D-15</t>
+  </si>
+  <si>
+    <t>A Composition of Ube Polvoron</t>
+  </si>
+  <si>
+    <t>With Certificate (until December 07, 2027)</t>
+  </si>
+  <si>
+    <t>2020-D-16</t>
+  </si>
+  <si>
+    <t>A Process of Administering Chlorogenic Acid (CGA) Suspension for Control of Coffee Leaf Rust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernard A. Tad-Awan
+</t>
+  </si>
+  <si>
+    <t>With certificate until December 7, 2027)</t>
+  </si>
+  <si>
+    <t>2020-D-17</t>
+  </si>
+  <si>
+    <t>Pork Smoking Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynthia D. Garambas
+</t>
+  </si>
+  <si>
+    <t>2020-D-18</t>
+  </si>
+  <si>
+    <t>Agricultural Windbreak Structure System</t>
+  </si>
+  <si>
+    <t>-Received notice of withdrawal application last January 27, 2022.  (Note: To process within 4 mos. from the date of receipt of the notice to withdrawn.)</t>
+  </si>
+  <si>
+    <t>2020-D-19</t>
+  </si>
+  <si>
+    <t>A Composition of Minerals for Formulating Feeds for Philippine Native Pigs (Black Tiaong Strain)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Arnel D. Garcia
+</t>
+  </si>
+  <si>
+    <t>Notice of publication with reminders: Request for substantive examination must be filed, together with the payment of the corresponding fee within six (6) mos. From the aforementioned date of release on October 3, 2022.  Note:  Processed Request for Substantive Report last March 10, 2023; Payment should be made on April 3, 2023; Paid on March 31, 2023; Requested e-receipt on March 31, 2023; Received e-copy of Substantive Examination Report on October 1, 2024; Processed Answer to SER, Letter, Draft, &amp; SER on November 29, 2024; Received Ack to Letter, Draft &amp; SER with IPOPHL mark on November 29, 2024; Received Supplementary Office Action on March 08, 2025;</t>
+  </si>
+  <si>
+    <t>2020-D-20</t>
+  </si>
+  <si>
+    <t>A Composition of Pineapple-Chayote Jam</t>
+  </si>
+  <si>
+    <t>Response to formality Examination Report mailed on August 5, 2020</t>
+  </si>
+  <si>
+    <t>2020-D-21</t>
+  </si>
+  <si>
+    <t>A Process of Pineapple-Chayote Jam</t>
+  </si>
+  <si>
+    <t>2020-D-22</t>
+  </si>
+  <si>
+    <t>A Process for Making Polvoron Enriched with Chickpea</t>
+  </si>
+  <si>
+    <t>Notice of Publication mailed on June 30, 2020</t>
+  </si>
+  <si>
+    <t>2020-D-23</t>
+  </si>
+  <si>
+    <t>A Process for Making Cake Enriched with Chickpea and Sweet Potato</t>
+  </si>
+  <si>
+    <t>Petition for Revival emailed on May 5, 2021</t>
+  </si>
+  <si>
+    <t>2020-D-24</t>
+  </si>
+  <si>
+    <t>A Process for Making Salad Enriched with Chickpea and Vegetables</t>
+  </si>
+  <si>
+    <t>Notice of Publication mailed on Oct. 27, 2020</t>
+  </si>
+  <si>
+    <t>2020-D-25</t>
+  </si>
+  <si>
+    <t>A Process for Making Chickpea-Sweet Potato Filling</t>
+  </si>
+  <si>
+    <t>Formality Examination Report mailed January 05, 2021 and recevied on April 15, 2021</t>
+  </si>
+  <si>
+    <t>2020-D-26</t>
+  </si>
+  <si>
+    <t>A Process for Making Chickpea Oatmeal Bar</t>
+  </si>
+  <si>
+    <t>Notice of Publication mailed on November 19, 2020</t>
+  </si>
+  <si>
+    <t>2020-D-27</t>
+  </si>
+  <si>
+    <t>A Composition of Feed Formulation for Improved Philippine Mallard Duck (Anas Platyrhynchos) Layers</t>
+  </si>
+  <si>
+    <t>Notice of Withdrawn Application received on May 25, 2022</t>
+  </si>
+  <si>
+    <t>2020-D-28</t>
+  </si>
+  <si>
+    <t>A Process for Making Vanilla Flavored Potato Ice Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominga E. Gabriel
+</t>
+  </si>
+  <si>
+    <t>Petition for Revival emailed on December 7, 2020; Withdrawn with Petition for Revival</t>
+  </si>
+  <si>
+    <t>2020-D-29</t>
+  </si>
+  <si>
+    <t>A Process for Making Binatog (Corn Dessert) Using Chickpea</t>
+  </si>
+  <si>
+    <t>Notice of Publication mailed on August 20, 2020</t>
+  </si>
+  <si>
+    <t>2020-D-30</t>
+  </si>
+  <si>
+    <t>A Process for Making Potato Ice Cream with Chocolate</t>
+  </si>
+  <si>
+    <t>Petition for revival filed on December 7, 2020; Withdrawn with Petition for Revival</t>
+  </si>
+  <si>
+    <t>2020-D-31</t>
+  </si>
+  <si>
+    <t>A Composition for Making Potato Ice Cream with Buko-Pandan Flavor</t>
+  </si>
+  <si>
+    <t>2020-D-32</t>
+  </si>
+  <si>
+    <t>A Process for Making Spicy Chinese Cabbage Sauce</t>
+  </si>
+  <si>
+    <t>22020000067/22020000068</t>
+  </si>
+  <si>
+    <t>Notice of Forfeiture of Application</t>
+  </si>
+  <si>
+    <t>September 20, 2018/ February 12, 2020</t>
+  </si>
+  <si>
+    <t>2020-D-33</t>
+  </si>
+  <si>
+    <t>A Process for Making Chickpea in Brine Solution</t>
+  </si>
+  <si>
+    <t>Acknowledgement; Notice of forfeiture of application mailed on September 15, 2020; Notice of Publication mailed on November 19, 2020</t>
+  </si>
+  <si>
+    <t>2020-D-34</t>
+  </si>
+  <si>
+    <t>A Composition of Dried Arabica Coffee Pulp Wine</t>
+  </si>
+  <si>
+    <t>Notice of Publication mailed on August 16, 2022 and received on Sept. 27, 2022; Processed; Received hardcopy of COR on October 21, 2024;</t>
+  </si>
+  <si>
+    <t>With certificate (until 6 December 2027)</t>
+  </si>
+  <si>
+    <t>2020-D-35</t>
+  </si>
+  <si>
+    <t>A Process of Dried Arabica Coffee Pulp Wine</t>
+  </si>
+  <si>
+    <t>Notice of Publication mailed on Aug. 16, 2022 and received on Sept. 27, 2022: Processed.; Received hardcopy of COR on October 21, 2024;</t>
+  </si>
+  <si>
+    <t>Date Registered</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>2020-E-01</t>
+  </si>
+  <si>
+    <t>Consortium became Cordillera Consortium for Agriculture, Aquatic, and Resources Research and Development/CorCAARRD</t>
+  </si>
+  <si>
+    <t>10 years (until July 2, 2031)</t>
+  </si>
+  <si>
+    <t>Received Reminder of 3th year DAU last May 19, 2023, Period to File November 5, 2020-November 5, 2023</t>
+  </si>
+  <si>
+    <t>2020-E-OC-01</t>
+  </si>
+  <si>
+    <t>YSG</t>
+  </si>
+  <si>
+    <t>FIled DAU on October 9, 2023;</t>
+  </si>
+  <si>
+    <t>10 years (until 27 August 2031)</t>
+  </si>
+  <si>
+    <t>2020-E-OC-02</t>
+  </si>
+  <si>
+    <t>FARM INO</t>
+  </si>
+  <si>
+    <t>Victor Palocpoc Jr.</t>
+  </si>
+  <si>
+    <t>Client Type</t>
+  </si>
+  <si>
+    <t>Outside Client</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Starting Date</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>August 3, 2020</t>
+  </si>
+  <si>
+    <t>5 years</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>August 4, 2020</t>
+  </si>
+  <si>
+    <t>Leila Mary A. Ayban, Araceli G. Ladiald, Jemma Rose M. Kilakil, Nemie A. Chamollog, Phillip Tom B. Asi-as</t>
+  </si>
+  <si>
+    <t>Leila Mary A. Ayban, Araceli G. Ladilad, Jemma Rose M. Kilakil, Nemie A. Chamollog, Phillip Tom B. Asi-as</t>
+  </si>
+  <si>
+    <t>Amelia M. Kimeu, Remegio T. Calayan</t>
+  </si>
+  <si>
+    <t>Amelia M. Kimeu, Remegio T. Calayan, Kirby D. Gasigas, Jacob B. Atas</t>
+  </si>
+  <si>
+    <t>Violeta B. Salda, Manuel M. Dorado Jr.</t>
+  </si>
+  <si>
+    <t>Violeta B. Salda, Jofrey J. Bayating</t>
+  </si>
+  <si>
+    <t>Carlito P. Laurean, Ruth S. Batani, Alexander W. Fagyan, Teresita K. Mangili, Jocelyn C. Perez, Laudemar L. Luis, Craig P. Lucas, Sheler D. Ramos, Cus M. Kilakil</t>
+  </si>
+  <si>
+    <t>Grace S. Backian, Ammie D. Ngaotoy, Jophr L. Galian, Betty T. Gayao, Dalen T. Meldoz</t>
+  </si>
+  <si>
+    <t>Grace S. Backian, Ammie D. Ngaotoy, Jophr L. Galian, Betty T. Gayao</t>
+  </si>
+  <si>
+    <t>Jamar G. Garcia, Alexander T. Fagyan</t>
+  </si>
+  <si>
+    <t>Jamar G. Garcia, Leo E. Kimbungan, Francois A. Bayas, Rose D. Dagupen, Joseph C. Anas, Gerry M. Alfonso</t>
+  </si>
+  <si>
+    <t>Belinda A. Tad-awan, Darwin A. Basquial, Josie Orlang</t>
+  </si>
+  <si>
+    <t>Cheryll C. Launio, Mary Cris B. Sotelo</t>
+  </si>
+  <si>
+    <t>Milagros R. Dumaslan, Belinda A. Tad-awan</t>
+  </si>
+  <si>
+    <t>Alexander T. Fagyan, Jamar G. Garcia</t>
+  </si>
+  <si>
+    <t>Valentino L. Macanes, Lesley Dale G. Umayat, Mirafy G. Balang</t>
+  </si>
+  <si>
+    <t>Jocelyn C. Perez, Teresita K. Mangili, Roger L. Pescasio</t>
+  </si>
+  <si>
+    <t>Jovita M. Sim, Teresa B. Bocales</t>
+  </si>
+  <si>
+    <t>Violeta B. Salda, Jofrey J. Bayating, Lesley Dale G. Umayat</t>
+  </si>
+  <si>
+    <t>Jocelyn C. Perez, Teresita K. Mangili, Adelma M. Reparejo</t>
+  </si>
+  <si>
+    <t>Violeta B. Salda, Jofrey J. Bayating, Manuel M. Dorado Jr.</t>
+  </si>
+  <si>
+    <t>Sherlyn C. Tipayno, Criselda S. Battad, Amelia M. Kimeu, Jayson D. Komicho</t>
+  </si>
+  <si>
+    <t>Belinda A. Tad-awan, Carlito P. Laurean, Hector C. Gayomba, Esther Josephine D. Sagalla, Teresita D. Masangcay, Mannylen P. Odias, Jasmin Chomawat</t>
+  </si>
+  <si>
+    <t>Dalen T. Meldoz, Esther T. Botangen, Joyce K. Mama-o, Betty T. GayaO, Sherily B. Balauro</t>
+  </si>
+  <si>
+    <t>Laudemar L. Luis, Alexander W. Fagyan</t>
+  </si>
+  <si>
+    <t>Dolores E. Alawas, Divinia M. Yango, Elizabeth A. Lascano, Janet Lynn S. Montemayor, Imelda G. Parcasio, Apler J. Bansiong, Esper L. Feliciano, Jingle P. Cuevas, Agustin R.Nang-is, Brenda B. Allay, Evelyn S. Angiwan</t>
+  </si>
+  <si>
+    <t>Julius B. Dominguez, Felix D. Sab-it</t>
+  </si>
+  <si>
+    <t>Carlito P.Laurean, Ruth S. Batani, Flordeliza O. Naje, Laudemar L. Luis, Hector A. Badis, Sheler D. Ramos, Graig D. Lucas</t>
+  </si>
+  <si>
+    <t>Ana N. Pecsoy, April P. Estrada, Jake L. Galian</t>
+  </si>
+  <si>
+    <t>Craig P. Lucas, Sheler P. Ramos, Laudemar L. Luis, Alexander W. Fagyan, Ruth S. Batani, Betty C. Listino</t>
+  </si>
+  <si>
+    <t>Dalen T. Meldoz,
+Esther T. Botangen,
+Joyce K. Mama-o,
+Betty T. Gayao,
+Sherilyn B. Balauro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jovita M. Sim,
+Teresa B. Bocales
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jao-Jao A. Somyden,
+Rhea S. Contada,
+Pelin B. Belino,
+Johnabel T. Basatan,
 Ruda Fe A. Suanding
 </t>
   </si>
   <si>
-    <t>2020-D-08</t>
-  </si>
-  <si>
-    <t>A Process for Making Turmeric (Curcuma Longa) Powder for Tea and Spice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esther T. Botangen
+    <t xml:space="preserve">Esther T. Botangen,
 Joyce K. Mama-o
 </t>
   </si>
   <si>
-    <t>With certificate (until December 07, 2027)</t>
-  </si>
-  <si>
-    <t>2020-D-09</t>
-  </si>
-  <si>
-    <t>A Process of Baking Cake Enriched with Zucchini (Cucurbita Pepo)</t>
-  </si>
-  <si>
-    <t>2020-D-10</t>
-  </si>
-  <si>
-    <t>A Process of Freeze-Dried Red-Fleshed Dragon Fruit</t>
-  </si>
-  <si>
-    <t>A Process for producing freeze-dried red-fleshed dragon fruit</t>
-  </si>
-  <si>
-    <t>2020-D-11</t>
-  </si>
-  <si>
-    <t>A Composition of Baking Cake Enriched with Zucchini (Cucurbita Pepo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melchor S. Lumiked
-</t>
-  </si>
-  <si>
-    <t>2020-D-12</t>
-  </si>
-  <si>
-    <t>A Composition of Baking Cake Enriched with Sugar Beet (Beta Vulgaris)</t>
-  </si>
-  <si>
-    <t>2020-D-13</t>
-  </si>
-  <si>
-    <t>A Process for Making Purple Yam Polvoron</t>
-  </si>
-  <si>
-    <t>2020-D-14</t>
-  </si>
-  <si>
-    <t>A Process for Making Sun-Dried Pork</t>
-  </si>
-  <si>
-    <t>Cynthia D. Garambas</t>
-  </si>
-  <si>
-    <t>2020-D-15</t>
-  </si>
-  <si>
-    <t>A Composition of Ube Polvoron</t>
-  </si>
-  <si>
-    <t>With Certificate (until December 07, 2027)</t>
-  </si>
-  <si>
-    <t>2020-D-16</t>
-  </si>
-  <si>
-    <t>A Process of Administering Chlorogenic Acid (CGA) Suspension for Control of Coffee Leaf Rust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernard A. Tad-Awan
-</t>
-  </si>
-  <si>
-    <t>With certificate until December 7, 2027)</t>
-  </si>
-  <si>
-    <t>2020-D-17</t>
-  </si>
-  <si>
-    <t>Pork Smoking Material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cynthia D. Garambas
-</t>
-  </si>
-  <si>
-    <t>2020-D-18</t>
-  </si>
-  <si>
-    <t>Agricultural Windbreak Structure System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carllito P. Laurean
-Ruth S. Batani
-Alexander W. Fagyan
-Jocelyn C. Perez
-Teresita K. Mangili
-Cus M. Kilakil
-Laudemar L. Luis
-Craig P. Lucas
+    <t xml:space="preserve">Carllito P. Laurean,
+Ruth S. Batani,
+Alexander W. Fagyan,
+Jocelyn C. Perez,
+Teresita K. Mangili,
+Cus M. Kilakil,
+Laudemar L. Luis,
+Craig P. Lucas,
 Sheller D. Ramos
 </t>
   </si>
   <si>
-    <t>-Received notice of withdrawal application last January 27, 2022.  (Note: To process within 4 mos. from the date of receipt of the notice to withdrawn.)</t>
-  </si>
-  <si>
-    <t>2020-D-19</t>
-  </si>
-  <si>
-    <t>A Composition of Minerals for Formulating Feeds for Philippine Native Pigs (Black Tiaong Strain)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary Arnel D. Garcia
-</t>
-  </si>
-  <si>
-    <t>Notice of publication with reminders: Request for substantive examination must be filed, together with the payment of the corresponding fee within six (6) mos. From the aforementioned date of release on October 3, 2022.  Note:  Processed Request for Substantive Report last March 10, 2023; Payment should be made on April 3, 2023; Paid on March 31, 2023; Requested e-receipt on March 31, 2023; Received e-copy of Substantive Examination Report on October 1, 2024; Processed Answer to SER, Letter, Draft, &amp; SER on November 29, 2024; Received Ack to Letter, Draft &amp; SER with IPOPHL mark on November 29, 2024; Received Supplementary Office Action on March 08, 2025;</t>
-  </si>
-  <si>
-    <t>2020-D-20</t>
-  </si>
-  <si>
-    <t>A Composition of Pineapple-Chayote Jam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jao-Jao A. Somyden
-Dalifer A. Gano
+    <t xml:space="preserve">Jao-Jao A. Somyden,
+Dalifer A. Gano,
 Melchor S. Lumiked
 </t>
   </si>
   <si>
-    <t>Response to formality Examination Report mailed on August 5, 2020</t>
-  </si>
-  <si>
-    <t>2020-D-21</t>
-  </si>
-  <si>
-    <t>A Process of Pineapple-Chayote Jam</t>
-  </si>
-  <si>
-    <t>2020-D-22</t>
-  </si>
-  <si>
-    <t>A Process for Making Polvoron Enriched with Chickpea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ines C. Gonzales
-Hilda L. Quindara
-Pelin B. Belino
-Fernando R. Gonzales
-Esther T. Botangen
+    <t xml:space="preserve">Ines C. Gonzales,
+Hilda L. Quindara,
+Pelin B. Belino,
+Fernando R. Gonzales,
+Esther T. Botangen,
 Joyce K. Mama-o
 </t>
   </si>
   <si>
-    <t>Notice of Publication mailed on June 30, 2020</t>
-  </si>
-  <si>
-    <t>2020-D-23</t>
-  </si>
-  <si>
-    <t>A Process for Making Cake Enriched with Chickpea and Sweet Potato</t>
-  </si>
-  <si>
-    <t>Petition for Revival emailed on May 5, 2021</t>
-  </si>
-  <si>
-    <t>2020-D-24</t>
-  </si>
-  <si>
-    <t>A Process for Making Salad Enriched with Chickpea and Vegetables</t>
-  </si>
-  <si>
-    <t>Notice of Publication mailed on Oct. 27, 2020</t>
-  </si>
-  <si>
-    <t>2020-D-25</t>
-  </si>
-  <si>
-    <t>A Process for Making Chickpea-Sweet Potato Filling</t>
-  </si>
-  <si>
-    <t>Formality Examination Report mailed January 05, 2021 and recevied on April 15, 2021</t>
-  </si>
-  <si>
-    <t>2020-D-26</t>
-  </si>
-  <si>
-    <t>A Process for Making Chickpea Oatmeal Bar</t>
-  </si>
-  <si>
-    <t>Notice of Publication mailed on November 19, 2020</t>
-  </si>
-  <si>
-    <t>2020-D-27</t>
-  </si>
-  <si>
-    <t>A Composition of Feed Formulation for Improved Philippine Mallard Duck (Anas Platyrhynchos) Layers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janine R. Berdos
-Ernesto A. Martin
+    <t xml:space="preserve">Ines C. Gonzales,
+Hilda L. Quindara,
+Pelin B. Belino,
+Fernando R. Gonzales,
+Esther T. Botangen,
+Joyce K. Mama-o,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janine R. Berdos,
+Ernesto A. Martin,
 Leo S. Laruan
 </t>
   </si>
   <si>
-    <t>Notice of Withdrawn Application received on May 25, 2022</t>
-  </si>
-  <si>
-    <t>2020-D-28</t>
-  </si>
-  <si>
-    <t>A Process for Making Vanilla Flavored Potato Ice Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominga E. Gabriel
-</t>
-  </si>
-  <si>
-    <t>Petition for Revival emailed on December 7, 2020; Withdrawn with Petition for Revival</t>
-  </si>
-  <si>
-    <t>2020-D-29</t>
-  </si>
-  <si>
-    <t>A Process for Making Binatog (Corn Dessert) Using Chickpea</t>
-  </si>
-  <si>
-    <t>Notice of Publication mailed on August 20, 2020</t>
-  </si>
-  <si>
-    <t>2020-D-30</t>
-  </si>
-  <si>
-    <t>A Process for Making Potato Ice Cream with Chocolate</t>
-  </si>
-  <si>
-    <t>Petition for revival filed on December 7, 2020; Withdrawn with Petition for Revival</t>
-  </si>
-  <si>
-    <t>2020-D-31</t>
-  </si>
-  <si>
-    <t>A Composition for Making Potato Ice Cream with Buko-Pandan Flavor</t>
-  </si>
-  <si>
-    <t>2020-D-32</t>
-  </si>
-  <si>
-    <t>A Process for Making Spicy Chinese Cabbage Sauce</t>
-  </si>
-  <si>
-    <t>22020000067/22020000068</t>
-  </si>
-  <si>
-    <t>Notice of Forfeiture of Application</t>
-  </si>
-  <si>
-    <t>September 20, 2018/ February 12, 2020</t>
-  </si>
-  <si>
-    <t>2020-D-33</t>
-  </si>
-  <si>
-    <t>A Process for Making Chickpea in Brine Solution</t>
-  </si>
-  <si>
-    <t>Acknowledgement; Notice of forfeiture of application mailed on September 15, 2020; Notice of Publication mailed on November 19, 2020</t>
-  </si>
-  <si>
-    <t>2020-D-34</t>
-  </si>
-  <si>
-    <t>A Composition of Dried Arabica Coffee Pulp Wine</t>
-  </si>
-  <si>
-    <t>Umayat, Lesley Dale G., Macanes, Valentino L., Balang, Mirafy G.</t>
-  </si>
-  <si>
-    <t>Notice of Publication mailed on August 16, 2022 and received on Sept. 27, 2022; Processed; Received hardcopy of COR on October 21, 2024;</t>
-  </si>
-  <si>
-    <t>With certificate (until 6 December 2027)</t>
-  </si>
-  <si>
-    <t>2020-D-35</t>
-  </si>
-  <si>
-    <t>A Process of Dried Arabica Coffee Pulp Wine</t>
-  </si>
-  <si>
-    <t>Notice of Publication mailed on Aug. 16, 2022 and received on Sept. 27, 2022: Processed.; Received hardcopy of COR on October 21, 2024;</t>
-  </si>
-  <si>
-    <t>Date Registered</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>2020-E-01</t>
-  </si>
-  <si>
-    <t>Consortium became Cordillera Consortium for Agriculture, Aquatic, and Resources Research and Development/CorCAARRD</t>
-  </si>
-  <si>
-    <t>10 years (until July 2, 2031)</t>
-  </si>
-  <si>
-    <t>Received Reminder of 3th year DAU last May 19, 2023, Period to File November 5, 2020-November 5, 2023</t>
-  </si>
-  <si>
-    <t>2020-E-OC-01</t>
-  </si>
-  <si>
-    <t>YSG</t>
-  </si>
-  <si>
-    <t>Tudayan, Baltazar Jr.</t>
-  </si>
-  <si>
-    <t>FIled DAU on October 9, 2023;</t>
-  </si>
-  <si>
-    <t>10 years (until 27 August 2031)</t>
-  </si>
-  <si>
-    <t>2020-E-OC-02</t>
-  </si>
-  <si>
-    <t>FARM INO</t>
-  </si>
-  <si>
-    <t>Victor Palocpoc Jr.</t>
-  </si>
-  <si>
-    <t>Client Type</t>
-  </si>
-  <si>
-    <t>Outside Client</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Starting Date</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>August 3, 2020</t>
-  </si>
-  <si>
-    <t>5 years</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>August 4, 2020</t>
+    <t>Lesley Dale G. Umayat,  Valentino L. Macanes,  Mirafy G. Balang</t>
+  </si>
+  <si>
+    <t>Lesley Dale G. Umayat, Valentino L. Macanes, Mirafy G. Balang</t>
+  </si>
+  <si>
+    <t>Baltazar Jr. Tudayan</t>
   </si>
 </sst>
 </file>
@@ -1728,38 +1739,45 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1770,6 +1788,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2419,9 +2438,9 @@
   </sheetPr>
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2444,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="C1" s="88" t="s">
         <v>1</v>
@@ -2476,26 +2495,26 @@
       <c r="L1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:28" ht="79.2">
+    <row r="2" spans="1:28" ht="66">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>499</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="89">
         <v>44604</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="89">
         <v>45341</v>
@@ -2504,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -2512,26 +2531,26 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="79.2">
+    <row r="3" spans="1:28" ht="66">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C3" s="89"/>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
+        <v>499</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="93">
         <v>44604</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="89">
         <v>45341</v>
@@ -2540,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2548,33 +2567,33 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" ht="79.2">
+    <row r="4" spans="1:28" ht="66">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C4" s="89"/>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>499</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="93">
         <v>44604</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="89"/>
       <c r="J4" s="62">
         <v>1</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -2582,33 +2601,33 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" ht="79.2">
+    <row r="5" spans="1:28" ht="66">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>499</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="93">
         <v>44604</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5" s="89"/>
       <c r="J5" s="62">
         <v>1</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -2616,33 +2635,33 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="79.2">
+    <row r="6" spans="1:28" ht="66">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C6" s="89"/>
       <c r="D6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="93">
         <v>44604</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I6" s="89"/>
       <c r="J6" s="62">
         <v>1</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -2650,33 +2669,33 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="79.2">
+    <row r="7" spans="1:28" ht="66">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C7" s="89"/>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="93">
         <v>44604</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="89"/>
       <c r="J7" s="62">
         <v>1</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -2686,31 +2705,31 @@
     </row>
     <row r="8" spans="1:28" ht="52.8">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>57</v>
+        <v>501</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="93">
         <v>44604</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I8" s="89"/>
       <c r="J8" s="62">
         <v>1</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -2720,31 +2739,31 @@
     </row>
     <row r="9" spans="1:28" ht="52.8">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>64</v>
+        <v>502</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="93">
         <v>44604</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I9" s="89"/>
       <c r="J9" s="62">
         <v>1</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -2754,31 +2773,31 @@
     </row>
     <row r="10" spans="1:28" ht="26.4">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C10" s="89"/>
       <c r="D10" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>503</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="93">
         <v>44604</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I10" s="89"/>
       <c r="J10" s="62">
         <v>1</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -2788,31 +2807,31 @@
     </row>
     <row r="11" spans="1:28" ht="26.4">
       <c r="A11" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C11" s="89"/>
       <c r="D11" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="93">
         <v>44604</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I11" s="89"/>
       <c r="J11" s="62">
         <v>1</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -2822,31 +2841,31 @@
     </row>
     <row r="12" spans="1:28" ht="26.4">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C12" s="89"/>
       <c r="D12" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="93">
         <v>44604</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I12" s="89"/>
       <c r="J12" s="62">
         <v>1</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -2856,31 +2875,31 @@
     </row>
     <row r="13" spans="1:28" ht="118.8">
       <c r="A13" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C13" s="89"/>
       <c r="D13" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>505</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="89">
         <v>44193</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I13" s="95"/>
       <c r="J13" s="63">
         <v>4</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -2890,31 +2909,31 @@
     </row>
     <row r="14" spans="1:28" ht="105.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C14" s="89"/>
       <c r="D14" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>506</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="89">
         <v>44193</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I14" s="89"/>
       <c r="J14" s="62">
         <v>4</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -2924,31 +2943,31 @@
     </row>
     <row r="15" spans="1:28" ht="118.8">
       <c r="A15" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>108</v>
+        <v>507</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="89">
         <v>44193</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I15" s="89"/>
       <c r="J15" s="62">
         <v>4</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -2958,31 +2977,31 @@
     </row>
     <row r="16" spans="1:28" ht="39.6">
       <c r="A16" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C16" s="89"/>
       <c r="D16" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="89">
         <v>44193</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I16" s="89"/>
       <c r="J16" s="62">
         <v>4</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -2992,31 +3011,31 @@
     </row>
     <row r="17" spans="1:28" ht="52.8">
       <c r="A17" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C17" s="89"/>
       <c r="D17" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="89">
         <v>44193</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I17" s="89"/>
       <c r="J17" s="62">
         <v>4</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -3026,31 +3045,31 @@
     </row>
     <row r="18" spans="1:28" ht="39.6">
       <c r="A18" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C18" s="89"/>
       <c r="D18" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="89">
         <v>44193</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I18" s="89"/>
       <c r="J18" s="62">
         <v>4</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -3060,31 +3079,31 @@
     </row>
     <row r="19" spans="1:28" ht="26.4">
       <c r="A19" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C19" s="89"/>
       <c r="D19" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="89">
         <v>44193</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I19" s="89"/>
       <c r="J19" s="62">
         <v>4</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -3094,31 +3113,31 @@
     </row>
     <row r="20" spans="1:28" ht="26.4">
       <c r="A20" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C20" s="89"/>
       <c r="D20" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="89">
         <v>44193</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I20" s="89"/>
       <c r="J20" s="62">
         <v>4</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -3128,31 +3147,31 @@
     </row>
     <row r="21" spans="1:28" ht="39.6">
       <c r="A21" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C21" s="89"/>
       <c r="D21" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="89">
         <v>44193</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="I21" s="89"/>
       <c r="J21" s="62">
         <v>4</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -3162,31 +3181,31 @@
     </row>
     <row r="22" spans="1:28" ht="52.8">
       <c r="A22" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C22" s="89"/>
       <c r="D22" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>157</v>
+        <v>508</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="89">
         <v>44193</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="I22" s="89"/>
       <c r="J22" s="62">
         <v>4</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -3196,31 +3215,31 @@
     </row>
     <row r="23" spans="1:28" ht="79.2">
       <c r="A23" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C23" s="89"/>
       <c r="D23" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="89">
         <v>44193</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I23" s="89"/>
       <c r="J23" s="62">
         <v>4</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3230,31 +3249,31 @@
     </row>
     <row r="24" spans="1:28" ht="79.2">
       <c r="A24" s="5" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C24" s="89"/>
       <c r="D24" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="89">
         <v>44193</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="I24" s="89"/>
       <c r="J24" s="62">
         <v>4</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -3264,31 +3283,31 @@
     </row>
     <row r="25" spans="1:28" ht="39.6">
       <c r="A25" s="5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C25" s="89"/>
       <c r="D25" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="89">
         <v>44193</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="I25" s="89"/>
       <c r="J25" s="62">
         <v>4</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -3298,31 +3317,31 @@
     </row>
     <row r="26" spans="1:28" ht="39.6">
       <c r="A26" s="5" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C26" s="89"/>
       <c r="D26" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="89">
         <v>44193</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="I26" s="89"/>
       <c r="J26" s="62">
         <v>4</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -3332,31 +3351,31 @@
     </row>
     <row r="27" spans="1:28" ht="39.6">
       <c r="A27" s="5" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C27" s="89"/>
       <c r="D27" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="89">
         <v>44193</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="I27" s="89"/>
       <c r="J27" s="62">
         <v>4</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -3366,31 +3385,31 @@
     </row>
     <row r="28" spans="1:28" ht="39.6">
       <c r="A28" s="5" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C28" s="89"/>
       <c r="D28" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="89">
         <v>44193</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="I28" s="89"/>
       <c r="J28" s="62">
         <v>4</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -3400,31 +3419,31 @@
     </row>
     <row r="29" spans="1:28" ht="39.6">
       <c r="A29" s="5" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C29" s="89"/>
       <c r="D29" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="89">
         <v>44193</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I29" s="89"/>
       <c r="J29" s="62">
         <v>4</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -3434,31 +3453,31 @@
     </row>
     <row r="30" spans="1:28" ht="39.6">
       <c r="A30" s="5" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C30" s="89"/>
       <c r="D30" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="89">
         <v>44193</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I30" s="89"/>
       <c r="J30" s="62">
         <v>4</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -3468,31 +3487,31 @@
     </row>
     <row r="31" spans="1:28" ht="39.6">
       <c r="A31" s="5" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C31" s="89"/>
       <c r="D31" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="89">
         <v>44193</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="I31" s="89"/>
       <c r="J31" s="62">
         <v>4</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -3502,31 +3521,31 @@
     </row>
     <row r="32" spans="1:28" ht="66">
       <c r="A32" s="5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C32" s="89"/>
       <c r="D32" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="89">
         <v>44193</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="I32" s="89"/>
       <c r="J32" s="62">
         <v>4</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -3536,31 +3555,31 @@
     </row>
     <row r="33" spans="1:28" ht="39.6">
       <c r="A33" s="5" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>235</v>
+        <v>512</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="89">
         <v>44193</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="I33" s="89"/>
       <c r="J33" s="62">
         <v>4</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -3570,31 +3589,31 @@
     </row>
     <row r="34" spans="1:28" ht="26.4">
       <c r="A34" s="5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C34" s="89"/>
       <c r="D34" s="7" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>242</v>
+        <v>513</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="89">
         <v>44193</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="I34" s="89"/>
       <c r="J34" s="62">
         <v>4</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -3604,31 +3623,31 @@
     </row>
     <row r="35" spans="1:28" ht="39.6">
       <c r="A35" s="5" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C35" s="89"/>
       <c r="D35" s="7" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>249</v>
+        <v>514</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="89">
         <v>44193</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="I35" s="89"/>
       <c r="J35" s="62">
         <v>4</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -3638,31 +3657,31 @@
     </row>
     <row r="36" spans="1:28" ht="52.8">
       <c r="A36" s="5" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C36" s="89"/>
       <c r="D36" s="7" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>515</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="89">
         <v>44193</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="I36" s="89"/>
       <c r="J36" s="62">
         <v>4</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -3672,31 +3691,31 @@
     </row>
     <row r="37" spans="1:28" ht="26.4">
       <c r="A37" s="5" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C37" s="89"/>
       <c r="D37" s="7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>264</v>
+        <v>516</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="89">
         <v>44193</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="I37" s="89"/>
       <c r="J37" s="62">
         <v>4</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -3706,31 +3725,31 @@
     </row>
     <row r="38" spans="1:28" ht="26.4">
       <c r="A38" s="5" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C38" s="89"/>
       <c r="D38" s="7" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>264</v>
+        <v>516</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="89">
         <v>44193</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="I38" s="89"/>
       <c r="J38" s="62">
         <v>4</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -3740,31 +3759,31 @@
     </row>
     <row r="39" spans="1:28" ht="39.6">
       <c r="A39" s="5" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C39" s="89"/>
       <c r="D39" s="7" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>277</v>
+        <v>517</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="89">
         <v>44193</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="I39" s="89"/>
       <c r="J39" s="62">
         <v>4</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -3774,31 +3793,31 @@
     </row>
     <row r="40" spans="1:28" ht="79.2">
       <c r="A40" s="5" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C40" s="89"/>
       <c r="D40" s="7" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>284</v>
+        <v>518</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="89">
         <v>44193</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="I40" s="89"/>
       <c r="J40" s="62">
         <v>4</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -3808,31 +3827,31 @@
     </row>
     <row r="41" spans="1:28" ht="39.6">
       <c r="A41" s="5" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C41" s="89"/>
       <c r="D41" s="7" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>291</v>
+        <v>519</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="89">
         <v>44193</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I41" s="89"/>
       <c r="J41" s="62">
         <v>4</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -3842,31 +3861,31 @@
     </row>
     <row r="42" spans="1:28" ht="39.6">
       <c r="A42" s="5" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C42" s="89"/>
       <c r="D42" s="7" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>519</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="89">
         <v>44193</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="I42" s="89"/>
       <c r="J42" s="62">
         <v>4</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -3876,31 +3895,31 @@
     </row>
     <row r="43" spans="1:28" ht="13.2">
       <c r="A43" s="5" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C43" s="89"/>
       <c r="D43" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="89">
         <v>44193</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="I43" s="89"/>
       <c r="J43" s="62">
         <v>4</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -3910,31 +3929,31 @@
     </row>
     <row r="44" spans="1:28" ht="26.4">
       <c r="A44" s="5" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C44" s="89"/>
       <c r="D44" s="7" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="89">
         <v>44193</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="I44" s="89"/>
       <c r="J44" s="62">
         <v>4</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -3944,31 +3963,31 @@
     </row>
     <row r="45" spans="1:28" ht="13.2">
       <c r="A45" s="5" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C45" s="89"/>
       <c r="D45" s="7" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="89">
         <v>44193</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="I45" s="89"/>
       <c r="J45" s="62">
         <v>4</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -3978,31 +3997,31 @@
     </row>
     <row r="46" spans="1:28" ht="13.2">
       <c r="A46" s="5" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C46" s="89"/>
       <c r="D46" s="7" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="89">
         <v>44193</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="I46" s="89"/>
       <c r="J46" s="62">
         <v>4</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -4012,31 +4031,31 @@
     </row>
     <row r="47" spans="1:28" ht="13.2">
       <c r="A47" s="5" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C47" s="89"/>
       <c r="D47" s="7" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="89">
         <v>44193</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="I47" s="89"/>
       <c r="J47" s="62">
         <v>4</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -4044,31 +4063,31 @@
     </row>
     <row r="48" spans="1:28" ht="26.4">
       <c r="A48" s="5" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C48" s="89"/>
       <c r="D48" s="7" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="89">
         <v>44193</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="I48" s="89"/>
       <c r="J48" s="62">
         <v>4</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -4076,31 +4095,31 @@
     </row>
     <row r="49" spans="1:14" ht="52.8">
       <c r="A49" s="5" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C49" s="89"/>
       <c r="D49" s="7" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>335</v>
+        <v>520</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="89">
         <v>44193</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="I49" s="95"/>
       <c r="J49" s="63">
         <v>4</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -4108,31 +4127,31 @@
     </row>
     <row r="50" spans="1:14" ht="105.6">
       <c r="A50" s="5" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C50" s="89"/>
       <c r="D50" s="7" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>339</v>
+        <v>521</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="89">
         <v>44193</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="I50" s="89"/>
       <c r="J50" s="62">
         <v>4</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -4140,31 +4159,31 @@
     </row>
     <row r="51" spans="1:14" ht="66">
       <c r="A51" s="5" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C51" s="89"/>
       <c r="D51" s="7" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>343</v>
+        <v>522</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="89">
         <v>44193</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="I51" s="89"/>
       <c r="J51" s="62">
         <v>4</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -4172,31 +4191,31 @@
     </row>
     <row r="52" spans="1:14" ht="66">
       <c r="A52" s="5" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C52" s="89"/>
       <c r="D52" s="7" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="89">
         <v>44193</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="I52" s="89"/>
       <c r="J52" s="62">
         <v>4</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -4204,31 +4223,31 @@
     </row>
     <row r="53" spans="1:14" ht="26.4">
       <c r="A53" s="5" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C53" s="89"/>
       <c r="D53" s="7" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>352</v>
+        <v>523</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="89">
         <v>44193</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="I53" s="89"/>
       <c r="J53" s="62">
         <v>4</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -4236,1305 +4255,1305 @@
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C54" s="90"/>
       <c r="D54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="26" t="s">
         <v>16</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>17</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="90">
         <v>44193</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I54" s="90"/>
       <c r="J54" s="11">
         <v>4</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="158.4">
       <c r="A55" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C55" s="90"/>
       <c r="D55" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>25</v>
+        <v>524</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="90">
         <v>44193</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I55" s="90"/>
       <c r="J55" s="11">
         <v>4</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="26.4">
       <c r="A56" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C56" s="91"/>
       <c r="D56" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="90">
         <v>44193</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I56" s="91"/>
       <c r="J56" s="15">
         <v>4</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="52.8">
       <c r="A57" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C57" s="91"/>
       <c r="D57" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="90">
         <v>44193</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I57" s="91"/>
       <c r="J57" s="15">
         <v>4</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="39.6">
       <c r="A58" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C58" s="91"/>
       <c r="D58" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="90">
         <v>44193</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I58" s="91"/>
       <c r="J58" s="15">
         <v>4</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="39.6">
       <c r="A59" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C59" s="91"/>
       <c r="D59" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="90">
         <v>44193</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I59" s="91"/>
       <c r="J59" s="15">
         <v>4</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="39.6">
       <c r="A60" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C60" s="91"/>
       <c r="D60" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="90">
         <v>44193</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I60" s="91"/>
       <c r="J60" s="15">
         <v>4</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C61" s="91"/>
       <c r="D61" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="90">
         <v>44193</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I61" s="91"/>
       <c r="J61" s="15">
         <v>4</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C62" s="91"/>
       <c r="D62" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="90">
         <v>44193</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I62" s="91"/>
       <c r="J62" s="15">
         <v>4</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C63" s="90"/>
       <c r="D63" s="26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="90">
         <v>44193</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I63" s="90"/>
       <c r="J63" s="11">
         <v>4</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="92"/>
       <c r="D64" s="17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="90">
         <v>44193</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I64" s="92"/>
       <c r="J64" s="18">
         <v>4</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C65" s="90"/>
       <c r="D65" s="26" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="90">
         <v>44193</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I65" s="90"/>
       <c r="J65" s="11">
         <v>4</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C66" s="90"/>
       <c r="D66" s="26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="90">
         <v>44193</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I66" s="90"/>
       <c r="J66" s="11">
         <v>4</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C67" s="90"/>
       <c r="D67" s="26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="90">
         <v>44193</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I67" s="90"/>
       <c r="J67" s="11">
         <v>4</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C68" s="90"/>
       <c r="D68" s="26" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="90">
         <v>44193</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I68" s="90"/>
       <c r="J68" s="11">
         <v>4</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C69" s="91"/>
       <c r="D69" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>124</v>
+        <v>525</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="90">
         <v>44193</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="I69" s="91"/>
       <c r="J69" s="15">
         <v>4</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C70" s="90"/>
       <c r="D70" s="26" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="90">
         <v>44193</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I70" s="90"/>
       <c r="J70" s="11">
         <v>4</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C71" s="90"/>
       <c r="D71" s="26" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="90">
         <v>44193</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I71" s="90"/>
       <c r="J71" s="11">
         <v>4</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C72" s="90"/>
       <c r="D72" s="26" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="90">
         <v>44193</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="I72" s="90"/>
       <c r="J72" s="11">
         <v>4</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C73" s="90"/>
       <c r="D73" s="26" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="90">
         <v>44193</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I73" s="90"/>
       <c r="J73" s="11">
         <v>4</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C74" s="90"/>
       <c r="D74" s="26" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="90">
         <v>44193</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I74" s="90"/>
       <c r="J74" s="11">
         <v>4</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B75" s="65" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C75" s="90"/>
       <c r="D75" s="26" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="90">
         <v>44193</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="I75" s="90"/>
       <c r="J75" s="11">
         <v>4</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="15" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C76" s="91"/>
       <c r="D76" s="14" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>176</v>
+        <v>526</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="90">
         <v>44193</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I76" s="91"/>
       <c r="J76" s="15">
         <v>4</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="15" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C77" s="91"/>
       <c r="D77" s="14" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>176</v>
+        <v>526</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="90">
         <v>44193</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="I77" s="91"/>
       <c r="J77" s="15">
         <v>4</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="15" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C78" s="91"/>
       <c r="D78" s="14" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>176</v>
+        <v>526</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="90">
         <v>44193</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="I78" s="91"/>
       <c r="J78" s="15">
         <v>4</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="15" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C79" s="91"/>
       <c r="D79" s="14" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>176</v>
+        <v>526</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="90">
         <v>44193</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="I79" s="91"/>
       <c r="J79" s="15">
         <v>4</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C80" s="90"/>
       <c r="D80" s="26" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>203</v>
+        <v>527</v>
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="90">
         <v>44193</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I80" s="90"/>
       <c r="J80" s="11">
         <v>4</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C81" s="90"/>
       <c r="D81" s="26" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>203</v>
+        <v>527</v>
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="90">
         <v>44193</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="I81" s="90"/>
       <c r="J81" s="11">
         <v>4</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C82" s="90"/>
       <c r="D82" s="26" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>217</v>
+        <v>528</v>
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="90">
         <v>44193</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="I82" s="90"/>
       <c r="J82" s="11">
         <v>4</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C83" s="90"/>
       <c r="D83" s="26" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F83" s="11"/>
       <c r="G83" s="90">
         <v>44193</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="I83" s="90"/>
       <c r="J83" s="11">
         <v>4</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="15" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C84" s="91"/>
       <c r="D84" s="14" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="90">
         <v>44193</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="I84" s="91"/>
       <c r="J84" s="15">
         <v>4</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="15" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C85" s="91"/>
       <c r="D85" s="14" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="90">
         <v>44193</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="I85" s="91"/>
       <c r="J85" s="15">
         <v>4</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="15" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C86" s="91"/>
       <c r="D86" s="14" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="90">
         <v>44193</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="I86" s="91"/>
       <c r="J86" s="15">
         <v>4</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="15" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C87" s="91"/>
       <c r="D87" s="14" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="90">
         <v>44193</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="I87" s="91"/>
       <c r="J87" s="15">
         <v>4</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="15" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C88" s="91"/>
       <c r="D88" s="14" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="90">
         <v>44193</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="I88" s="91"/>
       <c r="J88" s="15">
         <v>4</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="15" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C89" s="91"/>
       <c r="D89" s="14" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="90">
         <v>44193</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="I89" s="91"/>
       <c r="J89" s="15">
         <v>4</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="15" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C90" s="91"/>
       <c r="D90" s="14" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="90">
         <v>44193</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="I90" s="91"/>
       <c r="J90" s="15">
         <v>4</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="15" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C91" s="91"/>
       <c r="D91" s="14" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="90">
         <v>44193</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="I91" s="91"/>
       <c r="J91" s="15">
         <v>4</v>
       </c>
       <c r="K91" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="15" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C92" s="91"/>
       <c r="D92" s="14" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="90">
         <v>44193</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="I92" s="91"/>
       <c r="J92" s="15">
         <v>4</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="15" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C93" s="91"/>
       <c r="D93" s="14" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="90">
         <v>44193</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="I93" s="91"/>
       <c r="J93" s="15">
         <v>4</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="15" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C94" s="91"/>
       <c r="D94" s="14" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="90">
         <v>44193</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="I94" s="91"/>
       <c r="J94" s="15">
         <v>4</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="15" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C95" s="91"/>
       <c r="D95" s="14" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="90">
         <v>44193</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="I95" s="91"/>
       <c r="J95" s="15">
         <v>4</v>
       </c>
       <c r="K95" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="15" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C96" s="91"/>
       <c r="D96" s="14" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="90">
         <v>44193</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="I96" s="91"/>
       <c r="J96" s="15">
         <v>4</v>
       </c>
       <c r="K96" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="15" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C97" s="91"/>
       <c r="D97" s="14" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="90">
         <v>44193</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="I97" s="91"/>
       <c r="J97" s="15">
         <v>4</v>
       </c>
       <c r="K97" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C98" s="90"/>
       <c r="D98" s="26" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F98" s="11"/>
       <c r="G98" s="90">
         <v>44193</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="I98" s="90"/>
       <c r="J98" s="11">
         <v>4</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5551,7 +5570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5571,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="C1" s="97" t="s">
         <v>1</v>
@@ -5601,28 +5620,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="79.2">
+    <row r="2" spans="1:18" ht="66">
       <c r="A2" s="5" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="7" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>359</v>
+        <v>529</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="G2" s="89">
         <v>43973</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="I2" s="89">
         <v>43984</v>
@@ -5631,7 +5650,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -5639,26 +5658,26 @@
     </row>
     <row r="3" spans="1:18" ht="39.6">
       <c r="A3" s="5" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C3" s="89"/>
       <c r="D3" s="7" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>364</v>
+        <v>530</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="G3" s="89">
         <v>43998</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="I3" s="89">
         <v>43998</v>
@@ -5667,33 +5686,33 @@
         <v>2</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="39.6">
       <c r="A4" s="5" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C4" s="89"/>
       <c r="D4" s="7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>530</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="G4" s="89">
         <v>43998</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="I4" s="89">
         <v>43998</v>
@@ -5702,33 +5721,33 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="66.599999999999994">
       <c r="A5" s="5" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="7" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="G5" s="98">
         <v>44012</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="I5" s="89">
         <v>44021</v>
@@ -5737,33 +5756,33 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:18" ht="39.6">
       <c r="A6" s="5" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C6" s="89"/>
       <c r="D6" s="7" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="G6" s="89">
         <v>44049</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="I6" s="89">
         <v>44049</v>
@@ -5772,7 +5791,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -6509,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="C1" s="102" t="s">
         <v>1</v>
@@ -6521,10 +6540,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="G1" s="119" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>4</v>
@@ -6547,102 +6566,102 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="10" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="10"/>
       <c r="I2" s="72"/>
       <c r="J2" s="10" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="K2" s="71" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="M2" s="75" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="28.8" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C3" s="71"/>
       <c r="D3" s="10" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="72"/>
       <c r="J3" s="10" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="K3" s="72" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="M3" s="75" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="10" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="120" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="I4" s="101">
         <v>44054</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="K4" s="72">
         <v>44055</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="M4" s="76">
         <v>3</v>
@@ -6652,36 +6671,36 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="120" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="E5" s="120"/>
       <c r="F5" s="120" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="G5" s="120" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="I5" s="101">
         <v>44056</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="K5" s="72">
         <v>44056</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="M5" s="76">
         <v>3</v>
@@ -7494,7 +7513,7 @@
   <dimension ref="A1:M990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7502,7 +7521,7 @@
     <col min="2" max="2" width="12.6640625" style="73"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
     <col min="6" max="6" width="27.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="73"/>
     <col min="10" max="10" width="17.88671875" customWidth="1"/>
@@ -7522,7 +7541,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>4</v>
@@ -7531,13 +7550,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="K1" s="77" t="s">
         <v>8</v>
@@ -7546,14 +7565,14 @@
     </row>
     <row r="2" spans="1:13" ht="60">
       <c r="A2" s="30" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="B2" s="105"/>
       <c r="C2" s="32" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="E2" s="32">
         <v>22020050790</v>
@@ -7563,24 +7582,24 @@
       <c r="H2" s="31"/>
       <c r="I2" s="34"/>
       <c r="J2" s="35" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L2" s="35"/>
       <c r="M2" s="78"/>
     </row>
     <row r="3" spans="1:13" ht="60">
       <c r="A3" s="30" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="B3" s="105"/>
       <c r="C3" s="32" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="E3" s="32">
         <v>22020050789</v>
@@ -7590,32 +7609,32 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="35" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L3" s="35"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="96.6">
       <c r="A4" s="36" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="B4" s="106">
         <v>44172</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="E4" s="38">
         <v>22020050788</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="G4" s="106">
         <v>44172</v>
@@ -7623,24 +7642,24 @@
       <c r="H4" s="39"/>
       <c r="I4" s="37"/>
       <c r="J4" s="40" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L4" s="40"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="60">
       <c r="A5" s="30" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="32" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E5" s="32">
         <v>22020050786</v>
@@ -7650,24 +7669,24 @@
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="35" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L5" s="35"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="60">
       <c r="A6" s="30" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="B6" s="105"/>
       <c r="C6" s="32" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E6" s="35">
         <v>22020050774</v>
@@ -7679,24 +7698,24 @@
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="35" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="60">
       <c r="A7" s="30" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="B7" s="105"/>
       <c r="C7" s="103" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="E7" s="32">
         <v>22020050785</v>
@@ -7706,24 +7725,24 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="35" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L7" s="35"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="82.8">
       <c r="A8" s="30" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="B8" s="105"/>
       <c r="C8" s="32" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>424</v>
+        <v>531</v>
       </c>
       <c r="E8" s="32">
         <v>22020050784</v>
@@ -7733,24 +7752,24 @@
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
       <c r="J8" s="35" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L8" s="35"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="60">
       <c r="A9" s="30" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="B9" s="105"/>
       <c r="C9" s="32" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>427</v>
+        <v>532</v>
       </c>
       <c r="E9" s="32">
         <v>22020050783</v>
@@ -7760,24 +7779,24 @@
       <c r="H9" s="31"/>
       <c r="I9" s="34"/>
       <c r="J9" s="35" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="60">
       <c r="A10" s="30" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="B10" s="105"/>
       <c r="C10" s="32" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="E10" s="32">
         <v>22020050781</v>
@@ -7787,53 +7806,53 @@
       <c r="H10" s="31"/>
       <c r="I10" s="34"/>
       <c r="J10" s="35" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="82.8">
       <c r="A11" s="30" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="B11" s="105"/>
       <c r="C11" s="32" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>424</v>
+        <v>531</v>
       </c>
       <c r="E11" s="32">
         <v>22020050780</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="110" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="35" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="60">
       <c r="A12" s="30" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="B12" s="105"/>
       <c r="C12" s="32" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="E12" s="32">
         <v>22020050779</v>
@@ -7843,24 +7862,24 @@
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="35" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="60">
       <c r="A13" s="30" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="B13" s="105"/>
       <c r="C13" s="32" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="E13" s="32">
         <v>22020050778</v>
@@ -7870,24 +7889,24 @@
       <c r="H13" s="31"/>
       <c r="I13" s="34"/>
       <c r="J13" s="35" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="41.4">
       <c r="A14" s="30" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="B14" s="105"/>
       <c r="C14" s="32" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>427</v>
+        <v>532</v>
       </c>
       <c r="E14" s="32">
         <v>22020050777</v>
@@ -7897,24 +7916,24 @@
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="35" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="39.6">
       <c r="A15" s="30" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="32" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="E15" s="32">
         <v>22020050776</v>
@@ -7924,24 +7943,24 @@
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
       <c r="J15" s="35" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L15" s="35"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="41.4">
       <c r="A16" s="30" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="32" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>427</v>
+        <v>532</v>
       </c>
       <c r="E16" s="32">
         <v>22020050775</v>
@@ -7951,24 +7970,24 @@
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
       <c r="J16" s="35" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="L16" s="35"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="75">
       <c r="A17" s="30" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="32" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="E17" s="32">
         <v>22020050773</v>
@@ -7978,24 +7997,24 @@
       <c r="H17" s="31"/>
       <c r="I17" s="41"/>
       <c r="J17" s="35" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L17" s="35"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="41.4">
       <c r="A18" s="30" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="B18" s="105"/>
       <c r="C18" s="32" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="E18" s="32">
         <v>22020050772</v>
@@ -8005,61 +8024,61 @@
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="35" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L18" s="35"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="138">
+    <row r="19" spans="1:13" ht="151.80000000000001">
       <c r="A19" s="42" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="B19" s="107">
         <v>44172</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>456</v>
+        <v>533</v>
       </c>
       <c r="E19" s="43">
         <v>12020050562</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="G19" s="106"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="L19" s="39"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="409.6">
       <c r="A20" s="44" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="B20" s="108">
         <v>44171</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="E20" s="45">
         <v>12020050561</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="G20" s="106">
         <v>44171</v>
@@ -8068,29 +8087,29 @@
       <c r="I20" s="39"/>
       <c r="J20" s="40"/>
       <c r="K20" s="40" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="L20" s="39"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="55.2">
       <c r="A21" s="36" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="B21" s="106">
         <v>43894</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="E21" s="38">
         <v>22020000130</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="G21" s="106">
         <v>43894</v>
@@ -8099,29 +8118,29 @@
       <c r="I21" s="39"/>
       <c r="J21" s="40"/>
       <c r="K21" s="40" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L21" s="39"/>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="55.2">
       <c r="A22" s="36" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="B22" s="106">
         <v>43894</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="E22" s="38">
         <v>22020000129</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="G22" s="106">
         <v>43894</v>
@@ -8130,29 +8149,29 @@
       <c r="I22" s="39"/>
       <c r="J22" s="40"/>
       <c r="K22" s="40" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L22" s="39"/>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="110.4">
       <c r="A23" s="36" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="B23" s="106">
         <v>43873</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="E23" s="38">
         <v>22020000077</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="G23" s="106">
         <v>43873</v>
@@ -8161,29 +8180,29 @@
       <c r="I23" s="39"/>
       <c r="J23" s="40"/>
       <c r="K23" s="40" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="L23" s="39"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="110.4">
       <c r="A24" s="36" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="B24" s="106">
         <v>43873</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="E24" s="38">
         <v>22020000076</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="G24" s="106">
         <v>43873</v>
@@ -8192,29 +8211,29 @@
       <c r="I24" s="39"/>
       <c r="J24" s="40"/>
       <c r="K24" s="40" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="L24" s="39"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="110.4">
       <c r="A25" s="36" t="s">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="B25" s="106">
         <v>43454</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="E25" s="38">
         <v>22020000075</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="G25" s="106">
         <v>44185</v>
@@ -8223,29 +8242,29 @@
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
       <c r="K25" s="40" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="L25" s="39"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="110.4">
       <c r="A26" s="36" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="B26" s="106">
         <v>43873</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="E26" s="38">
         <v>22020000074</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="G26" s="106">
         <v>43873</v>
@@ -8254,29 +8273,29 @@
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
       <c r="K26" s="40" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="L26" s="39"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="110.4">
       <c r="A27" s="36" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="B27" s="106">
         <v>43454</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="E27" s="38">
         <v>22020000073</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="G27" s="106">
         <v>43454</v>
@@ -8285,58 +8304,58 @@
       <c r="I27" s="39"/>
       <c r="J27" s="40"/>
       <c r="K27" s="40" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="L27" s="39"/>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="75">
       <c r="A28" s="36" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="B28" s="106">
         <v>43894</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="E28" s="38">
         <v>12020000073</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="G28" s="106"/>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
       <c r="J28" s="40"/>
       <c r="K28" s="40" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="L28" s="39"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" ht="45">
       <c r="A29" s="36" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="B29" s="106">
         <v>43364</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="E29" s="38">
         <v>22020000072</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="G29" s="106">
         <v>43364</v>
@@ -8345,29 +8364,29 @@
       <c r="I29" s="39"/>
       <c r="J29" s="40"/>
       <c r="K29" s="40" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="L29" s="39"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="92.4">
       <c r="A30" s="36" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="B30" s="106">
         <v>43873</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="E30" s="38">
         <v>22020000071</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="G30" s="106">
         <v>43873</v>
@@ -8376,29 +8395,29 @@
       <c r="I30" s="39"/>
       <c r="J30" s="40"/>
       <c r="K30" s="40" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="L30" s="39"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" ht="45">
       <c r="A31" s="36" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="B31" s="106">
         <v>43873</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="E31" s="38">
         <v>22020000070</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="G31" s="106">
         <v>43364</v>
@@ -8407,29 +8426,29 @@
       <c r="I31" s="39"/>
       <c r="J31" s="40"/>
       <c r="K31" s="40" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="L31" s="39"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="60">
       <c r="A32" s="36" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="B32" s="106">
         <v>43873</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="E32" s="38">
         <v>22020000069</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="G32" s="106">
         <v>43873</v>
@@ -8438,60 +8457,60 @@
       <c r="I32" s="39"/>
       <c r="J32" s="40"/>
       <c r="K32" s="40" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="L32" s="39"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" ht="52.8">
       <c r="A33" s="36" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="B33" s="106">
         <v>43873</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="G33" s="106" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
       <c r="J33" s="40"/>
       <c r="K33" s="40" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="L33" s="39"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="92.4">
       <c r="A34" s="36" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="B34" s="106">
         <v>43873</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="E34" s="38">
         <v>22020000066</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="G34" s="106">
         <v>43454</v>
@@ -8500,29 +8519,29 @@
       <c r="I34" s="39"/>
       <c r="J34" s="40"/>
       <c r="K34" s="40" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="L34" s="39"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" ht="66">
       <c r="A35" s="36" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="B35" s="109">
         <v>44171</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="E35" s="48">
         <v>22020050782</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="G35" s="109">
         <v>44171</v>
@@ -8530,32 +8549,32 @@
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
       <c r="J35" s="50" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="K35" s="50" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L35" s="48"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" ht="66">
       <c r="A36" s="36" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="B36" s="109">
         <v>44171</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="E36" s="48">
         <v>22020050787</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="G36" s="109">
         <v>44171</v>
@@ -8563,10 +8582,10 @@
       <c r="H36" s="50"/>
       <c r="I36" s="50"/>
       <c r="J36" s="50" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="K36" s="50" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L36" s="48"/>
       <c r="M36" s="4"/>
@@ -12402,8 +12421,8 @@
   </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -12420,13 +12439,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="C1" s="111" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="E1" s="55" t="s">
         <v>2</v>
@@ -12441,24 +12460,24 @@
         <v>5</v>
       </c>
       <c r="I1" s="114" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="L1" s="80" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="80" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="145.19999999999999">
       <c r="A2" s="56" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="B2" s="58"/>
       <c r="C2" s="112"/>
@@ -12466,10 +12485,10 @@
         <v>4202000517107</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G2" s="58"/>
       <c r="H2" s="112">
@@ -12480,34 +12499,34 @@
       </c>
       <c r="J2" s="58"/>
       <c r="K2" s="58" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
       <c r="L2" s="58"/>
       <c r="M2" s="79" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="N2" s="84"/>
       <c r="O2" s="85"/>
     </row>
     <row r="3" spans="1:15" ht="132">
       <c r="A3" s="60" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="C3" s="113"/>
       <c r="D3" s="118">
         <v>4202000517109</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="H3" s="112">
         <v>44140</v>
@@ -12517,36 +12536,36 @@
       </c>
       <c r="J3" s="57"/>
       <c r="K3" s="58" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="L3" s="57" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M3" s="59" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="N3" s="86"/>
       <c r="O3" s="87"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="60" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="C4" s="113"/>
       <c r="D4" s="118">
         <v>4202000517108</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="H4" s="112">
         <v>44140</v>
@@ -12556,13 +12575,13 @@
       </c>
       <c r="J4" s="57"/>
       <c r="K4" s="58" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="L4" s="57" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M4" s="59" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="N4" s="86"/>
       <c r="O4" s="87"/>
